--- a/Ficsit-Documentation.xlsx
+++ b/Ficsit-Documentation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="86">
   <si>
     <t xml:space="preserve">filesystem</t>
   </si>
@@ -133,7 +133,7 @@
     <t xml:space="preserve">[timeout:number]</t>
   </si>
   <si>
-    <t xml:space="preserve">file*</t>
+    <t xml:space="preserve">File</t>
   </si>
   <si>
     <t xml:space="preserve">open</t>
@@ -268,10 +268,7 @@
     <t xml:space="preserve">arg1:[int,]</t>
   </si>
   <si>
-    <t xml:space="preserve">arg2:string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arg3:string</t>
+    <t xml:space="preserve">arg2:string …</t>
   </si>
   <si>
     <t xml:space="preserve">analyzePath</t>
@@ -387,8 +384,8 @@
   </sheetPr>
   <dimension ref="A2:AA24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V10" activeCellId="0" sqref="V10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -396,13 +393,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="1" width="22.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="25.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="10" style="1" width="22.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="7.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="7.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="25.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="17" style="1" width="22.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="7.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="7.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="25.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="24" style="1" width="22.98"/>
   </cols>
@@ -444,7 +441,7 @@
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -462,7 +459,7 @@
       <c r="M3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="O3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="P3" s="1" t="s">
@@ -480,7 +477,7 @@
       <c r="T3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="0" t="s">
+      <c r="V3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="W3" s="1" t="s">
@@ -515,7 +512,7 @@
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -524,7 +521,7 @@
       <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="0" t="s">
+      <c r="O5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P5" s="1" t="s">
@@ -536,7 +533,7 @@
       <c r="R5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="0" t="s">
+      <c r="V5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="W5" s="1" t="s">
@@ -562,7 +559,7 @@
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -571,7 +568,7 @@
       <c r="J6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="0" t="s">
+      <c r="O6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P6" s="1" t="s">
@@ -583,7 +580,7 @@
       <c r="R6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="V6" s="0" t="s">
+      <c r="V6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="W6" s="1" t="s">
@@ -606,7 +603,7 @@
       <c r="D7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -615,7 +612,7 @@
       <c r="J7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="0" t="s">
+      <c r="V7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="W7" s="1" t="s">
@@ -644,7 +641,7 @@
       <c r="E8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -656,7 +653,7 @@
       <c r="K8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V8" s="0" t="s">
+      <c r="V8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="W8" s="1" t="s">
@@ -682,7 +679,7 @@
       <c r="D9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -691,7 +688,7 @@
       <c r="J9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V9" s="0" t="s">
+      <c r="V9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="W9" s="1" t="s">
@@ -714,7 +711,7 @@
       <c r="D10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -723,7 +720,7 @@
       <c r="J10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="V10" s="0" t="s">
+      <c r="V10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="W10" s="1" t="s">
@@ -749,7 +746,7 @@
       <c r="E11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -775,7 +772,7 @@
       <c r="E12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -798,7 +795,7 @@
       <c r="D13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -821,7 +818,7 @@
       <c r="D14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -847,7 +844,7 @@
       <c r="D15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="H15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -870,7 +867,7 @@
       <c r="D16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -893,7 +890,7 @@
       <c r="D17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="H17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -919,7 +916,7 @@
       <c r="E18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="H18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -942,7 +939,7 @@
       <c r="D19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="H19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -996,9 +993,6 @@
       <c r="E22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
@@ -1008,10 +1002,10 @@
         <v>54</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1022,10 +1016,10 @@
         <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1033,8 +1027,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/Ficsit-Documentation.xlsx
+++ b/Ficsit-Documentation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="88">
   <si>
     <t xml:space="preserve">filesystem</t>
   </si>
@@ -70,76 +70,88 @@
     <t xml:space="preserve">#</t>
   </si>
   <si>
+    <t xml:space="preserve">int, int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getMemory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Component | Component[]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proxy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id:string | string[]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">void</t>
+  </si>
+  <si>
+    <t xml:space="preserve">listen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">component:Component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">removeFileSystem</t>
+  </si>
+  <si>
     <t xml:space="preserve">Computer_C</t>
   </si>
   <si>
     <t xml:space="preserve">getInstance</t>
   </si>
   <si>
-    <t xml:space="preserve">Component | Component[]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proxy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id:string | string[]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">void</t>
-  </si>
-  <si>
-    <t xml:space="preserve">listen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">component:Component</t>
-  </si>
-  <si>
-    <t xml:space="preserve">removeFileSystem</t>
+    <t xml:space="preserve">string[]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">findComponent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">query:string | type:class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Component[]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">listening</t>
+  </si>
+  <si>
+    <t xml:space="preserve">initFileSystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">path:string</t>
   </si>
   <si>
     <t xml:space="preserve">reset</t>
   </si>
   <si>
-    <t xml:space="preserve">string[]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">findComponent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">query:string | type:class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Component[]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">listening</t>
-  </si>
-  <si>
-    <t xml:space="preserve">initFileSystem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">path:string</t>
+    <t xml:space="preserve">string e, Component s, …</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[timeout:number]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mode:string</t>
   </si>
   <si>
     <t xml:space="preserve">stop</t>
   </si>
   <si>
-    <t xml:space="preserve">string e, Component s, …</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[timeout:number]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">File</t>
-  </si>
-  <si>
-    <t xml:space="preserve">open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mode:string</t>
+    <t xml:space="preserve">ignore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">createDir</t>
   </si>
   <si>
     <t xml:space="preserve">panic</t>
@@ -148,40 +160,37 @@
     <t xml:space="preserve">error:string</t>
   </si>
   <si>
-    <t xml:space="preserve">ignore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">createDir</t>
+    <t xml:space="preserve">ignoreAll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove</t>
   </si>
   <si>
     <t xml:space="preserve">skip</t>
   </si>
   <si>
-    <t xml:space="preserve">ignoreAll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remove</t>
+    <t xml:space="preserve">clear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">move</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from:string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to:string</t>
   </si>
   <si>
     <t xml:space="preserve">promote</t>
   </si>
   <si>
-    <t xml:space="preserve">clear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">move</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from:string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to:string</t>
+    <t xml:space="preserve">rename</t>
   </si>
   <si>
     <t xml:space="preserve">demote</t>
   </si>
   <si>
-    <t xml:space="preserve">rename</t>
+    <t xml:space="preserve">exists</t>
   </si>
   <si>
     <t xml:space="preserve">int</t>
@@ -190,13 +199,13 @@
     <t xml:space="preserve">state</t>
   </si>
   <si>
-    <t xml:space="preserve">exists</t>
+    <t xml:space="preserve">childs</t>
   </si>
   <si>
     <t xml:space="preserve">beep</t>
   </si>
   <si>
-    <t xml:space="preserve">childs</t>
+    <t xml:space="preserve">children</t>
   </si>
   <si>
     <t xml:space="preserve">setEEPROM</t>
@@ -205,7 +214,7 @@
     <t xml:space="preserve">code:string</t>
   </si>
   <si>
-    <t xml:space="preserve">children</t>
+    <t xml:space="preserve">isFile</t>
   </si>
   <si>
     <t xml:space="preserve">string</t>
@@ -214,7 +223,7 @@
     <t xml:space="preserve">getEEPROM</t>
   </si>
   <si>
-    <t xml:space="preserve">isFile</t>
+    <t xml:space="preserve">isDir</t>
   </si>
   <si>
     <t xml:space="preserve">number</t>
@@ -223,19 +232,19 @@
     <t xml:space="preserve">time</t>
   </si>
   <si>
-    <t xml:space="preserve">isDir</t>
+    <t xml:space="preserve">mount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">device:string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mountPoint:string</t>
   </si>
   <si>
     <t xml:space="preserve">millis</t>
   </si>
   <si>
-    <t xml:space="preserve">mount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">device:string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mountPoint:string</t>
+    <t xml:space="preserve">unmount</t>
   </si>
   <si>
     <t xml:space="preserve">int, string, string</t>
@@ -244,16 +253,13 @@
     <t xml:space="preserve">magicTime</t>
   </si>
   <si>
-    <t xml:space="preserve">unmount</t>
+    <t xml:space="preserve">doFile</t>
   </si>
   <si>
     <t xml:space="preserve">object[]</t>
   </si>
   <si>
     <t xml:space="preserve">getPCIDevices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doFile</t>
   </si>
   <si>
     <t xml:space="preserve">function</t>
@@ -384,8 +390,8 @@
   </sheetPr>
   <dimension ref="A2:AA24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P10" activeCellId="0" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -512,15 +518,16 @@
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="K5" s="0"/>
       <c r="O5" s="1" t="s">
         <v>10</v>
       </c>
@@ -560,34 +567,34 @@
         <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -598,10 +605,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>10</v>
@@ -610,19 +617,19 @@
         <v>21</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -630,16 +637,16 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>10</v>
@@ -648,9 +655,6 @@
         <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="1" t="s">
         <v>41</v>
       </c>
       <c r="V8" s="1" t="s">
@@ -677,7 +681,7 @@
         <v>43</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>10</v>
@@ -688,6 +692,9 @@
       <c r="J9" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="K9" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="V9" s="1" t="s">
         <v>10</v>
       </c>
@@ -695,7 +702,7 @@
         <v>21</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -706,19 +713,19 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>10</v>
@@ -727,7 +734,7 @@
         <v>21</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -738,13 +745,13 @@
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>15</v>
@@ -753,7 +760,7 @@
         <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -764,10 +771,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>14</v>
@@ -776,7 +783,7 @@
         <v>15</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>55</v>
@@ -793,16 +800,16 @@
         <v>56</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -810,13 +817,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>10</v>
@@ -825,9 +832,6 @@
         <v>21</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K14" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -836,21 +840,24 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -865,7 +872,7 @@
         <v>64</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>10</v>
@@ -888,16 +895,16 @@
         <v>67</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -908,19 +915,19 @@
         <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>73</v>
@@ -937,7 +944,7 @@
         <v>74</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>10</v>
@@ -960,7 +967,16 @@
         <v>77</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -968,13 +984,13 @@
         <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -982,16 +998,16 @@
         <v>10</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -999,13 +1015,13 @@
         <v>10</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1016,10 +1032,10 @@
         <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Ficsit-Documentation.xlsx
+++ b/Ficsit-Documentation.xlsx
@@ -390,7 +390,7 @@
   </sheetPr>
   <dimension ref="A2:AA24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P10" activeCellId="0" sqref="P10"/>
     </sheetView>
   </sheetViews>
@@ -518,16 +518,15 @@
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="0"/>
       <c r="O5" s="1" t="s">
         <v>10</v>
       </c>
